--- a/AccessList.xlsx
+++ b/AccessList.xlsx
@@ -27,10 +27,10 @@
     <t>muruganeswaraprasath@gmail.com</t>
   </si>
   <si>
-    <t>25016199@mahindra.com</t>
+    <t>eswaraprasath.m@gmail.com</t>
   </si>
   <si>
-    <t>eswaraprasath.m@gmail.com</t>
+    <t>tausifshams87@gmail.com</t>
   </si>
 </sst>
 </file>
